--- a/SKA-Days/Mappe1.xlsx
+++ b/SKA-Days/Mappe1.xlsx
@@ -38,12 +38,6 @@
     <t>MWA</t>
   </si>
   <si>
-    <t>Pathfinder</t>
-  </si>
-  <si>
-    <t>LOFAR (Solar obs)</t>
-  </si>
-  <si>
     <t>eVLA</t>
   </si>
   <si>
@@ -57,6 +51,12 @@
   </si>
   <si>
     <t>CD Deconvolution</t>
+  </si>
+  <si>
+    <t>ASKAP</t>
+  </si>
+  <si>
+    <t>MPI IDG</t>
   </si>
 </sst>
 </file>
@@ -92,11 +92,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -150,22 +147,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$2:$B$6</c:f>
+              <c:f>Tabelle1!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>eVLA</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LOFAR (Solar obs)</c:v>
+                  <c:v>ASKAP</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Pathfinder</c:v>
+                  <c:v>MeerKAT</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MeerKAT</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>MWA</c:v>
                 </c:pt>
               </c:strCache>
@@ -173,23 +167,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$6</c:f>
+              <c:f>Tabelle1!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>8100</c:v>
                 </c:pt>
               </c:numCache>
@@ -447,7 +438,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$32</c:f>
+              <c:f>Tabelle1!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -468,7 +459,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$C$31:$D$31</c:f>
+              <c:f>Tabelle1!$C$30:$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -482,15 +473,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$32:$D$32</c:f>
+              <c:f>Tabelle1!$C$31:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>52.68333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>37.883333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -506,7 +497,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$33</c:f>
+              <c:f>Tabelle1!$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -527,7 +518,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$C$31:$D$31</c:f>
+              <c:f>Tabelle1!$C$30:$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -541,15 +532,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$33:$D$33</c:f>
+              <c:f>Tabelle1!$C$32:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>16.566666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>11.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,7 +830,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$43</c:f>
+              <c:f>Tabelle1!$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -860,7 +851,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$C$42</c:f>
+              <c:f>Tabelle1!$C$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -871,12 +862,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$43</c:f>
+              <c:f>Tabelle1!$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>52.68333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,7 +883,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$44</c:f>
+              <c:f>Tabelle1!$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -913,7 +904,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$C$42</c:f>
+              <c:f>Tabelle1!$C$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -924,12 +915,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$44</c:f>
+              <c:f>Tabelle1!$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>16.566666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2834,7 +2825,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2858,13 +2849,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2888,13 +2879,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>481292</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>172569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>235323</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3180,17 +3171,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D44"/>
+  <dimension ref="B2:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -3199,99 +3193,182 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>360</v>
+        <v>4000</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>4200</v>
+        <v>8100</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>8100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="T28">
         <v>7</v>
       </c>
-      <c r="D31" t="s">
-        <v>10</v>
+      <c r="U28">
+        <f>53/60</f>
+        <v>0.8833333333333333</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>8</v>
+      </c>
+      <c r="U29">
+        <f>41/60</f>
+        <v>0.68333333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="T30">
+        <f>SUM(T28:T29)</f>
+        <v>15</v>
+      </c>
+      <c r="U30">
+        <f>SUM(U28:U29)</f>
+        <v>1.5666666666666667</v>
+      </c>
+      <c r="V30">
+        <f>SUM(T30:U30)</f>
+        <v>16.566666666666666</v>
+      </c>
+      <c r="X30">
+        <v>11</v>
+      </c>
+      <c r="Y30">
+        <f>33/60</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z30">
+        <f>SUM(X30:Y30)</f>
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>52.68333333333333</v>
+      </c>
+      <c r="D31">
+        <v>37.883333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>16.566666666666666</v>
       </c>
       <c r="D32">
-        <v>70</v>
+        <v>11.55</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U33" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <v>18</v>
+      </c>
+      <c r="U34">
+        <f>35/60</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>34</v>
+      </c>
+      <c r="U35">
+        <f>6/60</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <f>SUM(T34:T35)</f>
+        <v>52</v>
+      </c>
+      <c r="U36">
+        <f>SUM(U34:U35)</f>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="V36">
+        <f>SUM(T36:U36)</f>
+        <v>52.68333333333333</v>
+      </c>
+      <c r="X36">
+        <v>37</v>
+      </c>
+      <c r="Y36">
+        <f>53/60</f>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="Z36">
+        <f>SUM(X36:Y36)</f>
+        <v>37.883333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>52.68333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
       <c r="C43">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>20</v>
+        <v>16.566666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/SKA-Days/Mappe1.xlsx
+++ b/SKA-Days/Mappe1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23340" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5475" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>GB/Hr</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>MWA</t>
-  </si>
-  <si>
-    <t>eVLA</t>
   </si>
   <si>
     <t>IDG</t>
@@ -57,6 +54,12 @@
   </si>
   <si>
     <t>MPI IDG</t>
+  </si>
+  <si>
+    <t>VLA</t>
+  </si>
+  <si>
+    <t>IDG (.netcore)</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>eVLA</c:v>
+                  <c:v>VLA</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ASKAP</c:v>
@@ -167,21 +170,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$5</c:f>
+              <c:f>Tabelle1!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4200</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8100</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,7 +300,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>GB / hr</a:t>
+                  <a:t>TB / hr</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -463,7 +466,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>IDG</c:v>
+                  <c:v>IDG (.netcore)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CD Deconvolution</c:v>
@@ -522,7 +525,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>IDG</c:v>
+                  <c:v>IDG (.netcore)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CD Deconvolution</c:v>
@@ -855,7 +858,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IDG</c:v>
+                  <c:v>IDG (.netcore)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -908,7 +911,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IDG</c:v>
+                  <c:v>IDG (.netcore)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3173,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,9 +3185,9 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -3192,10 +3195,14 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
+      <c r="E2">
+        <f>C2/1000</f>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>4000</v>
@@ -3203,8 +3210,12 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">C3/1000</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -3214,8 +3225,12 @@
       <c r="D4" t="s">
         <v>1</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -3224,11 +3239,15 @@
       </c>
       <c r="D5" t="s">
         <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8.1</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="U27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
@@ -3251,10 +3270,10 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T30">
         <f>SUM(T28:T29)</f>
@@ -3282,7 +3301,7 @@
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>52.68333333333333</v>
@@ -3293,7 +3312,7 @@
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>16.566666666666666</v>
@@ -3304,7 +3323,7 @@
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="U33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
@@ -3352,12 +3371,12 @@
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>52.68333333333333</v>
@@ -3365,7 +3384,7 @@
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>16.566666666666666</v>
